--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_NDC_2.0.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_NDC_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_uganda_data/ssp_modeling/scenario_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345131C-46B7-D147-98C1-642C5E93D0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54F316-91D1-244B-8C5B-64FEA5AAEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7260" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-720" windowWidth="38000" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -3950,7 +3950,9 @@
       <c r="N35" s="11">
         <v>1</v>
       </c>
-      <c r="O35" s="11"/>
+      <c r="O35" s="53">
+        <v>0.5</v>
+      </c>
       <c r="P35" s="11">
         <v>1</v>
       </c>
@@ -3992,7 +3994,7 @@
       <c r="N36" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="O36" s="11"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="11">
         <v>1</v>
       </c>
@@ -4032,7 +4034,9 @@
       <c r="N37" s="11">
         <v>1</v>
       </c>
-      <c r="O37" s="11"/>
+      <c r="O37" s="53">
+        <v>0.5</v>
+      </c>
       <c r="P37" s="11">
         <v>1</v>
       </c>
@@ -4226,7 +4230,9 @@
       <c r="P41" s="11">
         <v>2</v>
       </c>
-      <c r="Q41" s="53"/>
+      <c r="Q41" s="53">
+        <v>1</v>
+      </c>
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -4360,9 +4366,7 @@
       <c r="P44" s="11">
         <v>1</v>
       </c>
-      <c r="Q44" s="53">
-        <v>1</v>
-      </c>
+      <c r="Q44" s="53"/>
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,7 +4418,9 @@
       <c r="P45" s="11">
         <v>2</v>
       </c>
-      <c r="Q45" s="53"/>
+      <c r="Q45" s="53">
+        <v>1</v>
+      </c>
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,10 +4816,10 @@
         <v>0.5</v>
       </c>
       <c r="P53" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="53">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0.5</v>
       </c>
       <c r="R53" s="11"/>
     </row>
@@ -4864,10 +4870,10 @@
         <v>0.5</v>
       </c>
       <c r="P54" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="53">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0.5</v>
       </c>
       <c r="R54" s="11"/>
     </row>
@@ -4918,10 +4924,10 @@
         <v>0.5</v>
       </c>
       <c r="P55" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="53">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>0.5</v>
       </c>
       <c r="R55" s="11"/>
     </row>
@@ -4972,9 +4978,9 @@
         <v>1</v>
       </c>
       <c r="P56" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="11">
         <v>1</v>
       </c>
       <c r="R56" s="11"/>
@@ -5017,12 +5023,8 @@
         <v>1</v>
       </c>
       <c r="O57" s="11"/>
-      <c r="P57" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="53">
-        <v>1</v>
-      </c>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,9 +5072,9 @@
         <v>1</v>
       </c>
       <c r="P58" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="11">
         <v>1</v>
       </c>
       <c r="R58" s="11"/>
@@ -5115,10 +5117,8 @@
         <v>1</v>
       </c>
       <c r="O59" s="11"/>
-      <c r="P59" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="53"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -5159,10 +5159,8 @@
         <v>1</v>
       </c>
       <c r="O60" s="11"/>
-      <c r="P60" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q60" s="53"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -5212,10 +5210,10 @@
         <v>0.5</v>
       </c>
       <c r="P61" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="53">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0.5</v>
       </c>
       <c r="R61" s="11"/>
     </row>
@@ -5266,10 +5264,10 @@
         <v>0.5</v>
       </c>
       <c r="P62" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="53">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0.5</v>
       </c>
       <c r="R62" s="11"/>
     </row>
@@ -5291,7 +5289,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5303,7 +5301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5313,7 +5311,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5325,7 +5323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="169">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5335,7 +5333,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5347,7 +5345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5359,7 +5357,203 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:R22">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O4 O11:O12 O15 O19:O21 O43:O44 O47 O51 O26:O34 O32:P32 R32 O57:Q57 O38:O39">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O34 O32:P32 R32 O1:O6 O38:O1048576">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O32 O32:P32 R32">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:O44 O51 O47 O19:O21 O11:O12 O15 O3:O4 O7 O26:O34 O32:P32 R32 O57:Q57 O38:O39">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:P25 P30:P31 N23:N62 N8:P21 O26:O32 R32 N2:P6 O32:P34 O38:P62 P35:P37">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:P32 R32">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:R22">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576 O2:P6">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5371,203 +5565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7 P7 R7">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:R22">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O4 O11:O12 O15 O19:O21 O43:O44 O47 O51 O57 O26:O39 O32:P32 R32">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O1048576 O32:P32 R32 O1:O6">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O32 O32:P32 R32">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43:O44 O57 O51 O47 O19:O21 O11:O12 O15 O3:O4 O7 O26:O39 O32:P32 R32">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576 O2:P6">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:P25 P30:P31 N23:N62 N8:P21 O26:O32 O32:P62 R32 N2:P6">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:P32 R32">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:R22">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5579,7 +5577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P10">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5590,8 +5588,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26 R26">
-    <cfRule type="colorScale" priority="188">
+  <conditionalFormatting sqref="P26:P31 P7 O8:P25 R1:R1048576 O1:P6 O32:P34 O38:P1048576 P35:P37">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5602,8 +5600,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P31 P7 O8:P25 O32:P1048576 R1:R1048576 O1:P6">
-    <cfRule type="colorScale" priority="180">
+  <conditionalFormatting sqref="P53:P62">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5614,8 +5612,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27 R27">
-    <cfRule type="colorScale" priority="189">
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5625,45 +5623,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28 R28">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P29 R29">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q1048576 Q1 Q5:Q21">
     <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5694,8 +5654,168 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23:Q52 Q1 Q5:Q21 Q63:Q1048576">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53:Q62">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5707,6 +5827,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R10">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23:R25 R8:R21 R30:R62 R2:R6">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26 R26">
     <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
@@ -5718,7 +5862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R25 R8:R21 R30:R62 R2:R6">
+  <conditionalFormatting sqref="P27 R27">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -5730,7 +5874,81 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P28 R28">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29 R29">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U32">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5791,191 +6009,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
+  <conditionalFormatting sqref="O35:O37">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7043,9 +7079,9 @@
       <c r="D35" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E35" s="35" t="str">
+      <c r="E35" s="35">
         <f>+IF(VLOOKUP($B35,main!$C$2:$R$62,13,FALSE)=0,"",VLOOKUP($B35,main!$C$2:$R$62,13,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="F35" s="35">
         <f>+IF(VLOOKUP($B35,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B35,main!$C$2:$R$62,14,FALSE))</f>
@@ -7103,9 +7139,9 @@
       <c r="D37" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E37" s="35" t="str">
+      <c r="E37" s="35">
         <f>+IF(VLOOKUP($B37,main!$C$2:$R$62,13,FALSE)=0,"",VLOOKUP($B37,main!$C$2:$R$62,13,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="F37" s="35">
         <f>+IF(VLOOKUP($B37,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B37,main!$C$2:$R$62,14,FALSE))</f>
@@ -7231,9 +7267,9 @@
         <f>+IF(VLOOKUP($B41,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B41,main!$C$2:$R$62,14,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="G41" s="35" t="str">
+      <c r="G41" s="35">
         <f>+IF(VLOOKUP($B41,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B41,main!$C$2:$R$62,15,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="35" t="str">
         <f>+IF(VLOOKUP($B41,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B41,main!$C$2:$R$62,16,FALSE))</f>
@@ -7321,9 +7357,9 @@
         <f>+IF(VLOOKUP($B44,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B44,main!$C$2:$R$62,14,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="35" t="str">
         <f>+IF(VLOOKUP($B44,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B44,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="H44" s="35" t="str">
         <f>+IF(VLOOKUP($B44,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B44,main!$C$2:$R$62,16,FALSE))</f>
@@ -7351,9 +7387,9 @@
         <f>+IF(VLOOKUP($B45,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B45,main!$C$2:$R$62,14,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="G45" s="35" t="str">
+      <c r="G45" s="35">
         <f>+IF(VLOOKUP($B45,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B45,main!$C$2:$R$62,15,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="35" t="str">
         <f>+IF(VLOOKUP($B45,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B45,main!$C$2:$R$62,16,FALSE))</f>
@@ -7589,11 +7625,11 @@
       </c>
       <c r="F53" s="35">
         <f>+IF(VLOOKUP($B53,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B53,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="35">
         <f>+IF(VLOOKUP($B53,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B53,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="35" t="str">
         <f>+IF(VLOOKUP($B53,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B53,main!$C$2:$R$62,16,FALSE))</f>
@@ -7619,11 +7655,11 @@
       </c>
       <c r="F54" s="35">
         <f>+IF(VLOOKUP($B54,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B54,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G54" s="35">
         <f>+IF(VLOOKUP($B54,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B54,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="35" t="str">
         <f>+IF(VLOOKUP($B54,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B54,main!$C$2:$R$62,16,FALSE))</f>
@@ -7649,11 +7685,11 @@
       </c>
       <c r="F55" s="35">
         <f>+IF(VLOOKUP($B55,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B55,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="35">
         <f>+IF(VLOOKUP($B55,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B55,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="35" t="str">
         <f>+IF(VLOOKUP($B55,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B55,main!$C$2:$R$62,16,FALSE))</f>
@@ -7679,7 +7715,7 @@
       </c>
       <c r="F56" s="35">
         <f>+IF(VLOOKUP($B56,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B56,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="35">
         <f>+IF(VLOOKUP($B56,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B56,main!$C$2:$R$62,15,FALSE))</f>
@@ -7707,13 +7743,13 @@
         <f>+IF(VLOOKUP($B57,main!$C$2:$R$62,13,FALSE)=0,"",VLOOKUP($B57,main!$C$2:$R$62,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="35" t="str">
         <f>+IF(VLOOKUP($B57,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B57,main!$C$2:$R$62,14,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="35">
+        <v/>
+      </c>
+      <c r="G57" s="35" t="str">
         <f>+IF(VLOOKUP($B57,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B57,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="H57" s="35" t="str">
         <f>+IF(VLOOKUP($B57,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B57,main!$C$2:$R$62,16,FALSE))</f>
@@ -7739,7 +7775,7 @@
       </c>
       <c r="F58" s="35">
         <f>+IF(VLOOKUP($B58,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B58,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="35">
         <f>+IF(VLOOKUP($B58,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B58,main!$C$2:$R$62,15,FALSE))</f>
@@ -7767,9 +7803,9 @@
         <f>+IF(VLOOKUP($B59,main!$C$2:$R$62,13,FALSE)=0,"",VLOOKUP($B59,main!$C$2:$R$62,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="35" t="str">
         <f>+IF(VLOOKUP($B59,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B59,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="G59" s="35" t="str">
         <f>+IF(VLOOKUP($B59,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B59,main!$C$2:$R$62,15,FALSE))</f>
@@ -7797,9 +7833,9 @@
         <f>+IF(VLOOKUP($B60,main!$C$2:$R$62,13,FALSE)=0,"",VLOOKUP($B60,main!$C$2:$R$62,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="35" t="str">
         <f>+IF(VLOOKUP($B60,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B60,main!$C$2:$R$62,14,FALSE))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="G60" s="35" t="str">
         <f>+IF(VLOOKUP($B60,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B60,main!$C$2:$R$62,15,FALSE))</f>
@@ -7829,11 +7865,11 @@
       </c>
       <c r="F61" s="35">
         <f>+IF(VLOOKUP($B61,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B61,main!$C$2:$R$62,14,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="35">
         <f>+IF(VLOOKUP($B61,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B61,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" s="35" t="str">
         <f>+IF(VLOOKUP($B61,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B61,main!$C$2:$R$62,16,FALSE))</f>
@@ -7859,11 +7895,11 @@
       </c>
       <c r="F62" s="35">
         <f>+IF(VLOOKUP($B62,main!$C$2:$R$62,14,FALSE)=0,"",VLOOKUP($B62,main!$C$2:$R$62,14,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G62" s="35">
         <f>+IF(VLOOKUP($B62,main!$C$2:$R$62,15,FALSE)=0,"",VLOOKUP($B62,main!$C$2:$R$62,15,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H62" s="35" t="str">
         <f>+IF(VLOOKUP($B62,main!$C$2:$R$62,16,FALSE)=0,"",VLOOKUP($B62,main!$C$2:$R$62,16,FALSE))</f>
